--- a/Machine Learning Tracker.xlsx
+++ b/Machine Learning Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeld\OneDrive\Desktop\CARL-VIRT-DATA-PT-04-2023-U-LOLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4168A0-3BE3-4087-96AE-D8405064BFE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200D61A-D38C-4F7C-8924-A14467A9B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35550" yWindow="1710" windowWidth="26085" windowHeight="12390" xr2:uid="{87FAE4AD-BC69-461C-9FA8-FC486EFA988D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{87FAE4AD-BC69-461C-9FA8-FC486EFA988D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
-  <si>
-    <t>Unsupervised</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Supervised</t>
   </si>
@@ -47,44 +44,65 @@
     <t>Machine Learning Models</t>
   </si>
   <si>
-    <t>Deep Learning (Tensor Flow)</t>
-  </si>
-  <si>
     <t>Types</t>
   </si>
   <si>
-    <t>Classifications</t>
-  </si>
-  <si>
     <t>Accurracy (target &gt; 75%)</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>K-Value is 2</t>
-  </si>
-  <si>
-    <t>Logistic Regression - Joel</t>
-  </si>
-  <si>
-    <t>Neural Networks - Ravina</t>
-  </si>
-  <si>
-    <t>RandomOverSampler - Joel</t>
-  </si>
-  <si>
-    <t>K-means - Ravina</t>
-  </si>
-  <si>
-    <t>PCA (Principle Component Analysis) - Ravina</t>
+    <t>Original Imbalanced Data</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Random Over Sampler to Balance Data</t>
+  </si>
+  <si>
+    <t>Decision Tree Classifier</t>
+  </si>
+  <si>
+    <t>Consistency in results for both winning teams and losing teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logistic Regression </t>
+  </si>
+  <si>
+    <t>Random Over Sampler to Balance Data With Class Weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision Tree Classifier </t>
+  </si>
+  <si>
+    <t>Under Sampling With Class Weight</t>
+  </si>
+  <si>
+    <t>Over Sampling With Class Weight</t>
+  </si>
+  <si>
+    <t>SMOTE (Synthetic Minority Over-sampling Technique) With Class Weight</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>No winning team data, class 0 has 823, class 1 has 31</t>
+  </si>
+  <si>
+    <t>Improvement on winning team.  Class 0 and Class 1 have 614</t>
+  </si>
+  <si>
+    <t>Equal samples for Class 0 and Class 1 to 31</t>
+  </si>
+  <si>
+    <t>Equal samples for Class 0 and Class 1 to 823</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +122,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -126,12 +150,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,96 +476,158 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2C80053-AFFE-43B8-BAC9-5DA1BC18F39B}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="42.44140625" customWidth="1"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
+      <c r="C1" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
+      <c r="C2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0.95</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.88</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.98</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.49757281553397997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="D5" s="3">
-        <v>0.784440842787682</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>0.971962630748748</v>
+        <v>0.77</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Machine Learning Tracker.xlsx
+++ b/Machine Learning Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeld\OneDrive\Desktop\CARL-VIRT-DATA-PT-04-2023-U-LOLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F200D61A-D38C-4F7C-8924-A14467A9B690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CB3F0-BCD4-439E-AD8F-CD260CE74F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{87FAE4AD-BC69-461C-9FA8-FC486EFA988D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>Supervised</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Decision Tree Classifier</t>
   </si>
   <si>
-    <t>Consistency in results for both winning teams and losing teams</t>
-  </si>
-  <si>
     <t xml:space="preserve">Logistic Regression </t>
   </si>
   <si>
@@ -96,6 +93,12 @@
   </si>
   <si>
     <t>Equal samples for Class 0 and Class 1 to 823</t>
+  </si>
+  <si>
+    <t>Consistency in results for both winning teams and losing teams, Class 0 and Class 1 have 614</t>
+  </si>
+  <si>
+    <t>Optimized Model: Consistency in results for both winning teams and losing teams, Class 0 and Class 1 have 614</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,6 +491,7 @@
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
     <col min="3" max="3" width="24.88671875" style="6" customWidth="1"/>
     <col min="4" max="4" width="22.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="99.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -504,12 +508,12 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -521,12 +525,12 @@
         <v>0.95</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -538,7 +542,7 @@
         <v>0.88</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -555,24 +559,24 @@
         <v>0.98</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="3">
         <v>0.99</v>
       </c>
       <c r="E5" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -583,13 +587,13 @@
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="3">
         <v>0.77</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -600,13 +604,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
         <v>0.97</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -617,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>0.97</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Machine Learning Tracker.xlsx
+++ b/Machine Learning Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joeld\OneDrive\Desktop\CARL-VIRT-DATA-PT-04-2023-U-LOLC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36CB3F0-BCD4-439E-AD8F-CD260CE74F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB26A37-323A-41C9-898B-B480AC43B859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{87FAE4AD-BC69-461C-9FA8-FC486EFA988D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{87FAE4AD-BC69-461C-9FA8-FC486EFA988D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +522,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -539,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="3">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="E3" t="s">
         <v>16</v>
@@ -590,7 +590,7 @@
         <v>11</v>
       </c>
       <c r="D6" s="3">
-        <v>0.77</v>
+        <v>0.38</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -624,7 +624,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="3">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
